--- a/August'21/29.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/29.08.2021/Daily Sales Info August-2021.xlsx
@@ -49668,8 +49668,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50126,7 +50126,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="30">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -50134,15 +50134,15 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>8308</v>
+        <v>8398</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>8308</v>
+        <v>8398</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>228.47</v>
+        <v>230.94499999999999</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
@@ -50150,15 +50150,15 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>8040.53</v>
+        <v>8128.0550000000003</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>78.926000000000002</v>
+        <v>79.780999999999992</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>39.926000000000002</v>
+        <v>40.780999999999992</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -51043,7 +51043,7 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
@@ -51063,15 +51063,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>250714</v>
+        <v>250804</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>269097</v>
+        <v>269187</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>6894.6350000000002</v>
+        <v>6897.1100000000006</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -51083,15 +51083,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>260331.36499999996</v>
+        <v>260418.88999999998</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>2381.7829999999999</v>
+        <v>2382.6379999999995</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>510.7829999999999</v>
+        <v>511.63799999999992</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51118,7 +51118,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>15445</v>
+        <v>15435</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
@@ -53213,7 +53213,7 @@
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>15445</v>
+        <v>15435</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
@@ -54391,7 +54391,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>15445</v>
+        <v>15435</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
@@ -54763,7 +54763,7 @@
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>15445</v>
+        <v>15435</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
@@ -55941,7 +55941,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>15445</v>
+        <v>15435</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
@@ -56787,7 +56787,7 @@
       </c>
       <c r="H11" s="21">
         <f>'1'!H11+'2'!H11+'3'!H11+'4'!H11+'5'!H11+'6'!H11+'7'!H11+'8'!H11+'9'!H11+'10'!H11+'11'!H11+'12'!H11+'13'!H11+'14'!H11+'15'!H11+'16'!H11+'17'!H11+'18'!H11+'19'!H11+'20'!H11+'21'!H11+'22'!H11+'23'!H11+'24'!H11+'25'!H11+'26'!H11+'27'!H11+'28'!H11+'29'!H11+'30'!H11+'31'!H11</f>
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="I11" s="21">
         <f>'1'!I11+'2'!I11+'3'!I11+'4'!I11+'5'!I11+'6'!I11+'7'!I11+'8'!I11+'9'!I11+'10'!I11+'11'!I11+'12'!I11+'13'!I11+'14'!I11+'15'!I11+'16'!I11+'17'!I11+'18'!I11+'19'!I11+'20'!I11+'21'!I11+'22'!I11+'23'!I11+'24'!I11+'25'!I11+'26'!I11+'27'!I11+'28'!I11+'29'!I11+'30'!I11+'31'!I11</f>
@@ -56807,15 +56807,15 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>242332</v>
+        <v>242422</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>269494</v>
+        <v>269584</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>6664.13</v>
+        <v>6666.6050000000005</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
@@ -56824,15 +56824,15 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>261959.87</v>
+        <v>262047.39500000002</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>2302.154</v>
+        <v>2303.009</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>1432.154</v>
+        <v>1433.009</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -58075,7 +58075,7 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>20030</v>
+        <v>20040</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
@@ -58095,15 +58095,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>6226083</v>
+        <v>6226173</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>6668229</v>
+        <v>6668319</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>171217.28250000003</v>
+        <v>171219.75750000001</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -58115,15 +58115,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>6450957.7175000003</v>
+        <v>6451045.2425000006</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>59147.78850000001</v>
+        <v>59148.643500000006</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>13093.788499999999</v>
+        <v>13094.643499999998</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58150,7 +58150,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>15445</v>
+        <v>15435</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
@@ -58518,11 +58518,11 @@
       </c>
       <c r="C7" s="53">
         <f>Total!E11*20+Total!F11*10+Total!G11*9+Total!H11*9</f>
-        <v>22600</v>
+        <v>22690</v>
       </c>
       <c r="D7" s="53">
         <f t="shared" si="0"/>
-        <v>12400</v>
+        <v>12310</v>
       </c>
       <c r="F7" s="57"/>
     </row>
@@ -58792,11 +58792,11 @@
       </c>
       <c r="C24" s="58">
         <f t="shared" ref="C24:D24" si="1">SUM(C3:C23)</f>
-        <v>325990</v>
+        <v>326080</v>
       </c>
       <c r="D24" s="58">
         <f t="shared" si="1"/>
-        <v>674010</v>
+        <v>673920</v>
       </c>
     </row>
   </sheetData>
